--- a/MainTop/25.12.2025 Макс Озон/объединенный_отчет_с_местом_updated.xlsx
+++ b/MainTop/25.12.2025 Макс Озон/объединенный_отчет_с_местом_updated.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\25.12.2025 Макс Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F557D1-06C2-4604-99B0-1A1433609176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0432DA-82DD-4916-91FD-4480C3D5D5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MainTop/25.12.2025 Макс Озон/объединенный_отчет_с_местом_updated.xlsx
+++ b/MainTop/25.12.2025 Макс Озон/объединенный_отчет_с_местом_updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\25.12.2025 Макс Озон\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\25.12.2025 Макс Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0432DA-82DD-4916-91FD-4480C3D5D5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9464F2EF-CD65-49A4-AA64-D5FA8345DB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>артикул</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>м13</t>
+  </si>
+  <si>
+    <t>25.12.2025 Макс Озон</t>
   </si>
 </sst>
 </file>
@@ -702,15 +705,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="6" customWidth="1"/>
-    <col min="3" max="7" width="4.7109375" customWidth="1"/>
+    <col min="3" max="6" width="3.42578125" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -733,7 +737,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -759,7 +763,7 @@
       <c r="F2" s="2">
         <v>8</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>32</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -785,7 +789,7 @@
       <c r="F3" s="2">
         <v>4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -811,7 +815,7 @@
       <c r="F4" s="2">
         <v>7</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -837,8 +841,11 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -860,7 +867,7 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <v>17</v>
       </c>
     </row>
@@ -883,7 +890,7 @@
       <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>16</v>
       </c>
     </row>
@@ -906,7 +913,7 @@
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>14</v>
       </c>
     </row>
@@ -929,7 +936,7 @@
       <c r="F9" s="2">
         <v>6</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>12</v>
       </c>
     </row>
@@ -952,7 +959,7 @@
       <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>11</v>
       </c>
     </row>
@@ -975,7 +982,7 @@
       <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
         <v>10</v>
       </c>
     </row>
@@ -998,7 +1005,7 @@
       <c r="F12" s="2">
         <v>10</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>10</v>
       </c>
     </row>
@@ -1021,7 +1028,7 @@
       <c r="F13" s="2">
         <v>0</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <v>10</v>
       </c>
     </row>
@@ -1044,7 +1051,7 @@
       <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5">
         <v>8</v>
       </c>
     </row>
@@ -1067,7 +1074,7 @@
       <c r="F15" s="2">
         <v>0</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="5">
         <v>8</v>
       </c>
     </row>
@@ -1090,7 +1097,7 @@
       <c r="F16" s="2">
         <v>0</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>8</v>
       </c>
     </row>
@@ -1113,7 +1120,7 @@
       <c r="F17" s="2">
         <v>2</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="5">
         <v>7</v>
       </c>
     </row>
@@ -1136,7 +1143,7 @@
       <c r="F18" s="2">
         <v>0</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1159,7 +1166,7 @@
       <c r="F19" s="2">
         <v>2</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1182,7 +1189,7 @@
       <c r="F20" s="2">
         <v>0</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1205,7 +1212,7 @@
       <c r="F21" s="2">
         <v>0</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1228,7 +1235,7 @@
       <c r="F22" s="2">
         <v>0</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1251,7 +1258,7 @@
       <c r="F23" s="2">
         <v>0</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1274,7 +1281,7 @@
       <c r="F24" s="2">
         <v>0</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1297,7 +1304,7 @@
       <c r="F25" s="2">
         <v>4</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1320,7 +1327,7 @@
       <c r="F26" s="2">
         <v>0</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1343,7 +1350,7 @@
       <c r="F27" s="2">
         <v>0</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1366,7 +1373,7 @@
       <c r="F28" s="2">
         <v>0</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1389,7 +1396,7 @@
       <c r="F29" s="2">
         <v>0</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1412,7 +1419,7 @@
       <c r="F30" s="2">
         <v>2</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1435,7 +1442,7 @@
       <c r="F31" s="2">
         <v>2</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1458,7 +1465,7 @@
       <c r="F32" s="2">
         <v>0</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1481,7 +1488,7 @@
       <c r="F33" s="2">
         <v>0</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1504,7 +1511,7 @@
       <c r="F34" s="2">
         <v>2</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1527,7 +1534,7 @@
       <c r="F35" s="2">
         <v>0</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1550,7 +1557,7 @@
       <c r="F36" s="2">
         <v>0</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1573,7 +1580,7 @@
       <c r="F37" s="2">
         <v>0</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1596,7 +1603,7 @@
       <c r="F38" s="2">
         <v>0</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1619,7 +1626,7 @@
       <c r="F39" s="2">
         <v>0</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1642,7 +1649,7 @@
       <c r="F40" s="2">
         <v>2</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1665,12 +1672,12 @@
       <c r="F41" s="2">
         <v>2</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="5">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="257" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>